--- a/GuildManager2d/CSV/shop_item.xlsx
+++ b/GuildManager2d/CSV/shop_item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GodotProjects\Games\GuildManagerFolder\GuildManager2d\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MedievalStoreManager\GuildManager2d\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2A59F7-6106-4757-9382-802B9AE66CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1AD31-5528-46B7-BB24-494A70604DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="3460" windowWidth="19420" windowHeight="10560" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="10305" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>market_value</t>
+  </si>
+  <si>
+    <t>average_color</t>
+  </si>
+  <si>
+    <t>160,104,73</t>
+  </si>
+  <si>
+    <t>220,55,70</t>
+  </si>
+  <si>
+    <t>105,76,77</t>
+  </si>
+  <si>
+    <t>243,131,27</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1070,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,6 +1083,7 @@
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1104,6 +1120,9 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1139,6 +1158,9 @@
       </c>
       <c r="K2">
         <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -1178,6 +1200,9 @@
       <c r="K3">
         <v>30</v>
       </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1216,6 +1241,9 @@
       <c r="K4">
         <v>100</v>
       </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1254,6 +1282,9 @@
       <c r="K5">
         <v>20</v>
       </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">

--- a/GuildManager2d/CSV/shop_item.xlsx
+++ b/GuildManager2d/CSV/shop_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MedievalStoreManager\GuildManager2d\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1AD31-5528-46B7-BB24-494A70604DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C5539-1777-40BB-A32B-88BBC6E908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="10305" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -49,18 +49,6 @@
     <t>max_amount</t>
   </si>
   <si>
-    <t>res://Asset/ShopItem/Bread.png</t>
-  </si>
-  <si>
-    <t>res://Asset/ShopItem/flask.png</t>
-  </si>
-  <si>
-    <t>res://Asset/ShopItem/test1.png</t>
-  </si>
-  <si>
-    <t>res://Asset/ShopItem/test2.png</t>
-  </si>
-  <si>
     <t>Loaf of Bread</t>
   </si>
   <si>
@@ -181,19 +169,34 @@
     <t>market_value</t>
   </si>
   <si>
-    <t>average_color</t>
-  </si>
-  <si>
-    <t>160,104,73</t>
-  </si>
-  <si>
-    <t>220,55,70</t>
-  </si>
-  <si>
-    <t>105,76,77</t>
-  </si>
-  <si>
-    <t>243,131,27</t>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Mead</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>BootsLeather</t>
+  </si>
+  <si>
+    <t>SwordIron</t>
+  </si>
+  <si>
+    <t>PotionWideGreen</t>
+  </si>
+  <si>
+    <t>WoolWhite</t>
+  </si>
+  <si>
+    <t>ShieldWood</t>
+  </si>
+  <si>
+    <t>MugClay</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1082,7 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
@@ -1103,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1115,27 +1118,25 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1148,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -1158,9 +1159,6 @@
       </c>
       <c r="K2">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -1170,13 +1168,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1189,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -1199,9 +1197,6 @@
       </c>
       <c r="K3">
         <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -1211,13 +1206,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1230,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1240,9 +1235,6 @@
       </c>
       <c r="K4">
         <v>100</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -1252,13 +1244,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -1271,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -1281,9 +1273,6 @@
       </c>
       <c r="K5">
         <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -1293,13 +1282,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -1309,7 +1298,10 @@
         <v>36</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1327,13 +1319,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -1343,7 +1335,10 @@
         <v>144</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1361,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>25</v>
@@ -1377,7 +1372,10 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -1395,13 +1393,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1411,7 +1409,10 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
       </c>
       <c r="I9">
         <v>40</v>
@@ -1429,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -1445,7 +1446,10 @@
         <v>60</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -1463,13 +1467,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -1479,7 +1483,10 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
       </c>
       <c r="I11">
         <v>25</v>
@@ -1497,13 +1504,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1513,7 +1520,10 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
       </c>
       <c r="I12">
         <v>40</v>
@@ -1531,13 +1541,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1565,13 +1575,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -1599,13 +1609,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1633,13 +1643,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1667,13 +1677,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -1701,13 +1711,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1735,13 +1745,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -1769,13 +1779,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>12</v>
@@ -1803,13 +1813,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>5</v>

--- a/GuildManager2d/CSV/shop_item.xlsx
+++ b/GuildManager2d/CSV/shop_item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MedievalStoreManager\GuildManager2d\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C5539-1777-40BB-A32B-88BBC6E908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38FC9B8-6183-43E0-BF17-8239C2AADD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Craft</t>
   </si>
   <si>
-    <t>Candle</t>
-  </si>
-  <si>
     <t>Fur Coat</t>
   </si>
   <si>
@@ -197,6 +194,21 @@
   </si>
   <si>
     <t>MugClay</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>RingSilber</t>
+  </si>
+  <si>
+    <t>Candle Blue</t>
+  </si>
+  <si>
+    <t>CandleBlue</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1085,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1118,32 +1130,34 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
       </c>
       <c r="F2">
         <f>ROUND(E2 * 1.2,0)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1152,36 +1166,39 @@
         <v>49</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F21" si="0">ROUND(E3 * 1.2,0)</f>
-        <v>12</v>
+        <f>ROUND(E3 * 1.2,0)</f>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1190,59 +1207,65 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A21" si="1">A3+1</f>
-        <v>2</v>
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
+        <f>ROUND(E4 * 1.2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1256,496 +1279,538 @@
         <v>8</v>
       </c>
       <c r="F5">
+        <f>ROUND(E5 * 1.2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <f>ROUND(E6 * 1.2,0)</f>
+        <v>144</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <f>ROUND(E7 * 1.2,0)</f>
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f>ROUND(E8 * 1.2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f>ROUND(E9 * 1.2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <f>ROUND(E10 * 1.2,0)</f>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f>ROUND(E11 * 1.2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f>ROUND(E12 * 1.2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5">
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f>ROUND(E13 * 1.2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <f>ROUND(E14 * 1.2,0)</f>
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>120</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9">
-        <v>40</v>
-      </c>
-      <c r="J9">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>25</v>
-      </c>
-      <c r="J11">
-        <v>25</v>
-      </c>
-      <c r="K11">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>ROUND(E15 * 1.2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f>ROUND(E16 * 1.2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <f>ROUND(E17 * 1.2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12">
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <f>ROUND(E18 * 1.2,0)</f>
+        <v>96</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
-      <c r="J13">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>60</v>
-      </c>
-      <c r="J16">
-        <v>60</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>80</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
-      <c r="K18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1757,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f>ROUND(E19 * 1.2,0)</f>
         <v>10</v>
       </c>
       <c r="G19">
@@ -1775,45 +1840,45 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>ROUND(E20 * 1.2,0)</f>
+        <v>60</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1822,26 +1887,29 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>ROUND(E21 * 1.2,0)</f>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L21">
+    <sortCondition ref="L2:L21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GuildManager2d/CSV/shop_item.xlsx
+++ b/GuildManager2d/CSV/shop_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MedievalStoreManager\GuildManager2d\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38FC9B8-6183-43E0-BF17-8239C2AADD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF19403F-B914-4CE0-84B2-3473CCA0A214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -37,9 +37,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>unlocked</t>
-  </si>
-  <si>
     <t>sprite_path</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Wooden Shield</t>
   </si>
   <si>
-    <t>Armor</t>
-  </si>
-  <si>
     <t>Armory</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>Dried Fish</t>
   </si>
   <si>
-    <t>Salted Meat</t>
-  </si>
-  <si>
     <t>Magic Scroll</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>Silver Ring</t>
   </si>
   <si>
-    <t>Herbs</t>
-  </si>
-  <si>
     <t>Flint</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>MugClay</t>
   </si>
   <si>
-    <t>license</t>
-  </si>
-  <si>
     <t>Flour</t>
   </si>
   <si>
@@ -209,6 +194,24 @@
   </si>
   <si>
     <t>CandleBlue</t>
+  </si>
+  <si>
+    <t>MeatLamb</t>
+  </si>
+  <si>
+    <t>Salted Lamb Meat</t>
+  </si>
+  <si>
+    <t>HerbBlue</t>
+  </si>
+  <si>
+    <t>Blueberry Herbs</t>
+  </si>
+  <si>
+    <t>ScrollEmpty</t>
+  </si>
+  <si>
+    <t>Meat</t>
   </si>
 </sst>
 </file>
@@ -1085,16 +1088,16 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
@@ -1118,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1126,395 +1129,330 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <f>ROUND(E2 * 1.2,0)</f>
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>30</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <f>ROUND(E3 * 1.2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A21" si="0">A3+1</f>
-        <v>3</v>
+        <f>A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <f>ROUND(E4 * 1.2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>A4+1</f>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f>ROUND(E5 * 1.2,0)</f>
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>120</v>
       </c>
       <c r="F6">
         <f>ROUND(E6 * 1.2,0)</f>
-        <v>144</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>A6+1</f>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <f>ROUND(E7 * 1.2,0)</f>
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>A7+1</f>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <f>ROUND(E8 * 1.2,0)</f>
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>A8+1</f>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <f>ROUND(E9 * 1.2,0)</f>
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J9">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>80</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="A10:A21" si="0">A9+1</f>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <f>ROUND(E10 * 1.2,0)</f>
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1523,38 +1461,32 @@
         <f>ROUND(E11 * 1.2,0)</f>
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
       </c>
       <c r="I11">
         <v>60</v>
       </c>
       <c r="J11">
-        <v>60</v>
-      </c>
-      <c r="K11">
         <v>100</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1563,352 +1495,325 @@
         <f>ROUND(E12 * 1.2,0)</f>
         <v>5</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
       </c>
       <c r="I12">
         <v>40</v>
       </c>
       <c r="J12">
-        <v>40</v>
-      </c>
-      <c r="K12">
         <v>60</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <f>ROUND(E13 * 1.2,0)</f>
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>25</v>
-      </c>
-      <c r="K13">
-        <v>40</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <f>ROUND(E14 * 1.2,0)</f>
-        <v>36</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>15</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <f>ROUND(E15 * 1.2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <f>ROUND(E16 * 1.2,0)</f>
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <f>ROUND(E17 * 1.2,0)</f>
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <f>ROUND(E18 * 1.2,0)</f>
-        <v>96</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <f>ROUND(E19 * 1.2,0)</f>
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
       </c>
       <c r="I19">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>30</v>
-      </c>
-      <c r="K19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <f>ROUND(E20 * 1.2,0)</f>
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F21">
         <f>ROUND(E21 * 1.2,0)</f>
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L21">
-    <sortCondition ref="L2:L21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="D2:D21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
